--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276EB920-0544-45DE-AA8D-77DE1B1D0D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$75</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -304,20 +305,6 @@
     <t>residenceStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	{
-		"code": "FR",
-		"value": "Foreigner"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "NFR",
-		"value": "Non-Foreigner"
-	}</t>
-  </si>
-  <si>
     <t>preferredLang</t>
   </si>
   <si>
@@ -325,12 +312,6 @@
   </si>
   <si>
     <t>{"value":"English","code":"eng"}</t>
-  </si>
-  <si>
-    <t>{"value":"français","code":"fra"}</t>
-  </si>
-  <si>
-    <t>Langue préférée de l'utilisateur</t>
   </si>
   <si>
     <t>fra</t>
@@ -436,13 +417,6 @@
   <si>
     <t xml:space="preserve">
 	{
-		"code": "MLE",
-		"value": "Mâle"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
 		"code": "FLE",
 		"value": "Femelle"
 	}</t>
@@ -450,233 +424,129 @@
   <si>
     <t xml:space="preserve">
 	{
+		"code": "BR",
+		"value": "Belizean Resident"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "BB",
+		"value": "Born Belizean"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "BB",
+		"value": "Nacida beliceña"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "BR",
+		"value": "Residente beliceña"
+	}</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>countryOfBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "MX",
+		"value": "Mexico"
+	}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+	{
+		"code": "GT",
+		"value": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Guatemala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"
+	}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "BZ",
+		"value": "Belize"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "CU",
+		"value": "Cuba"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "MX",
+		"value": "México"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "BZ",
+		"value": "Belice"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "MLE",
+		"value": "Femenina"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
 		"code": "OTH",
-		"value": "Autres"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FR",
-		"value": "Étrangère"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "NFR",
-		"value": "Non-étranger"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "أ",
-	}</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "أ +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "أ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "ب",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "ب +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ب-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "ا",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "112",
-		"value": "س-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "113",
-		"value": "لا اعرف"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "114",
-		"value": "غير قابل للتطبيق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "غير مرتبطة
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "زوجت"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "الأرامل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "مطلق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "مطلق من الناحية القانونية
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ملغاة"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "مبطل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Document-based",
-		"value": "مستند إلى المستند"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Introducer-based",
-		"value": "المعرف القائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "يلتقط"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "التسليم إلى العنوان الدائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "التسليم إلى العنوان الحالي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "MLE",
-		"value": "ذكر"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FLE",
-		"value": "أنثى"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "OTH",
-		"value": "آحرون"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FR",
-		"value": "أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "NFR",
-		"value": "غير أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t>{"value":"عربى","code":"ara"}</t>
-  </si>
-  <si>
-    <t>{"value":"عربي","code":"ara"}</t>
+		"value": "Otras"
+	}</t>
+  </si>
+  <si>
+    <t>Idioma preferida del usuario</t>
+  </si>
+  <si>
+    <t>{"value":"Española","code":"spa"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -689,6 +559,12 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -731,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1014,27 +890,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B103"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1093,7 +969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1123,7 +999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1153,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1183,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1213,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1243,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1273,7 +1149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -1303,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1333,7 +1209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -1363,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1393,7 +1269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -1423,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1453,7 +1329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -1483,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -1513,7 +1389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -1543,7 +1419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -1573,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10018</v>
       </c>
@@ -1603,7 +1479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -1633,7 +1509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10020</v>
       </c>
@@ -1663,7 +1539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -1693,7 +1569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10022</v>
       </c>
@@ -1723,7 +1599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -1753,7 +1629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -1783,7 +1659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -1813,7 +1689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10026</v>
       </c>
@@ -1843,7 +1719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -1873,7 +1749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10028</v>
       </c>
@@ -1903,7 +1779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -1933,7 +1809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10030</v>
       </c>
@@ -1947,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1963,7 +1839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10031</v>
       </c>
@@ -1977,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1993,22 +1869,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>10310</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
@@ -2023,21 +1899,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>10313</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -2053,24 +1929,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>10317</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G35" s="3" t="b">
         <f>TRUE()</f>
@@ -2083,24 +1959,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>10319</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G36" s="3" t="b">
         <f>TRUE()</f>
@@ -2113,7 +1989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10063</v>
       </c>
@@ -2130,7 +2006,7 @@
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G37" s="3" t="b">
         <f>TRUE()</f>
@@ -2143,7 +2019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10064</v>
       </c>
@@ -2160,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G38" s="3" t="b">
         <f>TRUE()</f>
@@ -2173,7 +2049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10065</v>
       </c>
@@ -2190,7 +2066,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G39" s="3" t="b">
         <f>TRUE()</f>
@@ -2203,7 +2079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10066</v>
       </c>
@@ -2220,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G40" s="3" t="b">
         <f>TRUE()</f>
@@ -2233,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10067</v>
       </c>
@@ -2250,7 +2126,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G41" s="3" t="b">
         <f>TRUE()</f>
@@ -2263,7 +2139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10068</v>
       </c>
@@ -2280,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G42" s="3" t="b">
         <f>TRUE()</f>
@@ -2293,7 +2169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10069</v>
       </c>
@@ -2310,7 +2186,7 @@
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G43" s="3" t="b">
         <f>TRUE()</f>
@@ -2323,7 +2199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10070</v>
       </c>
@@ -2340,7 +2216,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G44" s="3" t="b">
         <f>TRUE()</f>
@@ -2353,7 +2229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10071</v>
       </c>
@@ -2370,7 +2246,7 @@
         <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G45" s="3" t="b">
         <f>TRUE()</f>
@@ -2383,7 +2259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10072</v>
       </c>
@@ -2400,7 +2276,7 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G46" s="3" t="b">
         <f>TRUE()</f>
@@ -2413,7 +2289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10073</v>
       </c>
@@ -2430,7 +2306,7 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G47" s="3" t="b">
         <f>TRUE()</f>
@@ -2443,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10074</v>
       </c>
@@ -2460,7 +2336,7 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G48" s="3" t="b">
         <f>TRUE()</f>
@@ -2473,7 +2349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>10075</v>
       </c>
@@ -2487,10 +2363,10 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G49" s="3" t="b">
         <f>TRUE()</f>
@@ -2503,7 +2379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10076</v>
       </c>
@@ -2517,10 +2393,10 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G50" s="3" t="b">
         <f>TRUE()</f>
@@ -2533,7 +2409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>10077</v>
       </c>
@@ -2547,10 +2423,10 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G51" s="3" t="b">
         <f>TRUE()</f>
@@ -2563,7 +2439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10078</v>
       </c>
@@ -2577,10 +2453,10 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G52" s="3" t="b">
         <f>TRUE()</f>
@@ -2593,7 +2469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10079</v>
       </c>
@@ -2607,10 +2483,10 @@
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G53" s="3" t="b">
         <f>TRUE()</f>
@@ -2623,7 +2499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10080</v>
       </c>
@@ -2637,10 +2513,10 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G54" s="3" t="b">
         <f>TRUE()</f>
@@ -2653,7 +2529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>10081</v>
       </c>
@@ -2667,10 +2543,10 @@
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G55" s="3" t="b">
         <f>TRUE()</f>
@@ -2683,7 +2559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10082</v>
       </c>
@@ -2697,10 +2573,10 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G56" s="3" t="b">
         <f>TRUE()</f>
@@ -2713,7 +2589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>10083</v>
       </c>
@@ -2727,10 +2603,10 @@
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G57" s="3" t="b">
         <f>TRUE()</f>
@@ -2743,7 +2619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>10084</v>
       </c>
@@ -2757,10 +2633,10 @@
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G58" s="3" t="b">
         <f>TRUE()</f>
@@ -2773,7 +2649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>10085</v>
       </c>
@@ -2787,10 +2663,10 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G59" s="3" t="b">
         <f>TRUE()</f>
@@ -2803,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>10086</v>
       </c>
@@ -2817,10 +2693,10 @@
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G60" s="3" t="b">
         <f>TRUE()</f>
@@ -2833,7 +2709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>10087</v>
       </c>
@@ -2847,10 +2723,10 @@
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G61" s="3" t="b">
         <f>TRUE()</f>
@@ -2863,7 +2739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>10088</v>
       </c>
@@ -2877,10 +2753,10 @@
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G62" s="3" t="b">
         <f>TRUE()</f>
@@ -2893,7 +2769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>10089</v>
       </c>
@@ -2907,10 +2783,10 @@
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G63" s="3" t="b">
         <f>TRUE()</f>
@@ -2923,7 +2799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10090</v>
       </c>
@@ -2937,11 +2813,11 @@
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" t="s">
         <v>76</v>
       </c>
-      <c r="F64" t="s">
-        <v>60</v>
-      </c>
       <c r="G64" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2953,7 +2829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10091</v>
       </c>
@@ -2967,10 +2843,10 @@
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G65" s="3" t="b">
         <f>TRUE()</f>
@@ -2983,7 +2859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>10092</v>
       </c>
@@ -2997,10 +2873,10 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G66" s="3" t="b">
         <f>TRUE()</f>
@@ -3013,7 +2889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>10093</v>
       </c>
@@ -3027,10 +2903,10 @@
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G67" s="3" t="b">
         <f>TRUE()</f>
@@ -3043,27 +2919,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>10094</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="G68" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H68" t="s">
@@ -3073,27 +2948,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>10095</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="G69" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H69" t="s">
@@ -3103,27 +2977,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>10096</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="G70" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H70" t="s">
@@ -3133,27 +3006,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10097</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="G71" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H71" t="s">
@@ -3163,27 +3035,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>10098</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G72" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H72" t="s">
@@ -3193,87 +3064,84 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>10099</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>11001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>11002</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G73" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>10100</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>10101</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G75" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H75" t="s">
@@ -3283,837 +3151,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>10102</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>10103</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>10104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>10105</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10106</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>10107</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>10108</v>
-      </c>
-      <c r="B82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>10109</v>
-      </c>
-      <c r="B83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>10110</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>10111</v>
-      </c>
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>10112</v>
-      </c>
-      <c r="B86" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>10113</v>
-      </c>
-      <c r="B87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>10114</v>
-      </c>
-      <c r="B88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>10115</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>10116</v>
-      </c>
-      <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>10117</v>
-      </c>
-      <c r="B91" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>10118</v>
-      </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>10119</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>10120</v>
-      </c>
-      <c r="B94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F94" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>10121</v>
-      </c>
-      <c r="B95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F95" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>10122</v>
-      </c>
-      <c r="B96" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>10123</v>
-      </c>
-      <c r="B97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F97" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>10124</v>
-      </c>
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>10125</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>10126</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>10127</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>10128</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G102" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>10129</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G103" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I103"/>
+  <autoFilter ref="A1:I75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276EB920-0544-45DE-AA8D-77DE1B1D0D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB79895C-3803-4879-9E9A-21D6E8423DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,10 +891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -969,7 +970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10018</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10020</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10022</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10026</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10028</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10030</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10031</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10063</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10064</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10065</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10066</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10067</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10068</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10069</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10070</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10071</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10072</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10073</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10074</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>10075</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10076</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>10077</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10078</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10079</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10080</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>10081</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10082</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>10083</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>10084</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>10085</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>10086</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>10087</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>10088</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>10089</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10090</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10091</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>10092</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>10093</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>10094</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>10095</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>10096</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10097</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>10098</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>10099</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>11001</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>11002</v>
       </c>
@@ -3152,7 +3153,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I75" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="preferredLang"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB79895C-3803-4879-9E9A-21D6E8423DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C327308-584D-43D8-8F7B-9ED0F579C4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>{"value":"Española","code":"spa"}</t>
+  </si>
+  <si>
+    <t>statusInBelize</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="B31" sqref="B31:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,12 +1813,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
@@ -1840,12 +1843,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
@@ -1870,7 +1873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>10310</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>10313</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>10317</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>10319</v>
       </c>
@@ -2860,12 +2863,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>10092</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
         <v>52</v>
@@ -2890,12 +2893,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>10093</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
         <v>52</v>
@@ -3156,7 +3159,7 @@
   <autoFilter ref="A1:I75" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="preferredLang"/>
+        <filter val="residenceStatus"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C327308-584D-43D8-8F7B-9ED0F579C4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F350E40-397A-4C5B-AA94-03A4C8700A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -300,9 +300,6 @@
 		"code": "OTH",
 		"value": "Others"
 	}</t>
-  </si>
-  <si>
-    <t>residenceStatus</t>
   </si>
   <si>
     <t>preferredLang</t>
@@ -898,7 +895,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B75"/>
+      <selection activeCell="C31" sqref="C31:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1818,16 +1815,16 @@
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1848,16 +1845,16 @@
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1878,16 +1875,16 @@
         <v>10310</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -1908,16 +1905,16 @@
         <v>10313</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1938,19 +1935,19 @@
         <v>10317</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="3" t="b">
         <f>TRUE()</f>
@@ -1968,19 +1965,19 @@
         <v>10319</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" s="3" t="b">
         <f>TRUE()</f>
@@ -2010,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="3" t="b">
         <f>TRUE()</f>
@@ -2040,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" s="3" t="b">
         <f>TRUE()</f>
@@ -2070,7 +2067,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="3" t="b">
         <f>TRUE()</f>
@@ -2100,7 +2097,7 @@
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" s="3" t="b">
         <f>TRUE()</f>
@@ -2130,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" s="3" t="b">
         <f>TRUE()</f>
@@ -2160,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" s="3" t="b">
         <f>TRUE()</f>
@@ -2190,7 +2187,7 @@
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" s="3" t="b">
         <f>TRUE()</f>
@@ -2220,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" s="3" t="b">
         <f>TRUE()</f>
@@ -2250,7 +2247,7 @@
         <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="3" t="b">
         <f>TRUE()</f>
@@ -2280,7 +2277,7 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" s="3" t="b">
         <f>TRUE()</f>
@@ -2310,7 +2307,7 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="3" t="b">
         <f>TRUE()</f>
@@ -2340,7 +2337,7 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" s="3" t="b">
         <f>TRUE()</f>
@@ -2367,10 +2364,10 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" s="3" t="b">
         <f>TRUE()</f>
@@ -2397,10 +2394,10 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G50" s="3" t="b">
         <f>TRUE()</f>
@@ -2427,10 +2424,10 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="3" t="b">
         <f>TRUE()</f>
@@ -2457,10 +2454,10 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G52" s="3" t="b">
         <f>TRUE()</f>
@@ -2487,10 +2484,10 @@
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" s="3" t="b">
         <f>TRUE()</f>
@@ -2517,10 +2514,10 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" s="3" t="b">
         <f>TRUE()</f>
@@ -2547,10 +2544,10 @@
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" s="3" t="b">
         <f>TRUE()</f>
@@ -2577,10 +2574,10 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G56" s="3" t="b">
         <f>TRUE()</f>
@@ -2607,10 +2604,10 @@
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" s="3" t="b">
         <f>TRUE()</f>
@@ -2637,10 +2634,10 @@
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" s="3" t="b">
         <f>TRUE()</f>
@@ -2667,10 +2664,10 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" s="3" t="b">
         <f>TRUE()</f>
@@ -2697,10 +2694,10 @@
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" s="3" t="b">
         <f>TRUE()</f>
@@ -2727,10 +2724,10 @@
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" s="3" t="b">
         <f>TRUE()</f>
@@ -2757,10 +2754,10 @@
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G62" s="3" t="b">
         <f>TRUE()</f>
@@ -2787,10 +2784,10 @@
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G63" s="3" t="b">
         <f>TRUE()</f>
@@ -2817,10 +2814,10 @@
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G64" s="3" t="b">
         <f>TRUE()</f>
@@ -2847,10 +2844,10 @@
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G65" s="3" t="b">
         <f>TRUE()</f>
@@ -2868,19 +2865,19 @@
         <v>10092</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s">
         <v>75</v>
-      </c>
-      <c r="F66" t="s">
-        <v>76</v>
       </c>
       <c r="G66" s="3" t="b">
         <f>TRUE()</f>
@@ -2898,19 +2895,19 @@
         <v>10093</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G67" s="3" t="b">
         <f>TRUE()</f>
@@ -2928,16 +2925,16 @@
         <v>10094</v>
       </c>
       <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
@@ -2957,16 +2954,16 @@
         <v>10095</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -2986,16 +2983,16 @@
         <v>10096</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -3015,16 +3012,16 @@
         <v>10097</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -3044,19 +3041,19 @@
         <v>10098</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G72" s="3" t="b">
         <v>1</v>
@@ -3073,19 +3070,19 @@
         <v>10099</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G73" s="3" t="b">
         <v>1</v>
@@ -3102,19 +3099,19 @@
         <v>11001</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G74" s="3" t="b">
         <v>1</v>
@@ -3131,19 +3128,19 @@
         <v>11002</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G75" s="3" t="b">
         <v>1</v>

--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F350E40-397A-4C5B-AA94-03A4C8700A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91C223B-1FDA-455B-8FA1-C7618F3643DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -309,107 +309,6 @@
   </si>
   <si>
     <t>{"value":"English","code":"eng"}</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "113",
-		"value": "Je ne sais pas"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "114",
-		"value": "N'est pas applicable"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "Seule"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "Mariée"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "Veuve"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "Divorcée"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "Séparés légalement"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "Annulé"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "Annulé"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Document-based",
-		"value": "Basé sur des documents"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Introducer-based",
-		"value": "Basé sur l'introducteur"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "Ramasser"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "Livraison à une adresse permanente"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "Livraison à l'adresse actuelle"
-	}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -891,24 +790,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C75"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -940,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -970,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1000,7 +898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1030,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1060,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1090,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1120,7 +1018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1150,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -1180,7 +1078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1210,7 +1108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -1240,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1270,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -1300,7 +1198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1330,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -1360,7 +1258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -1390,7 +1288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -1420,7 +1318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -1450,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10018</v>
       </c>
@@ -1480,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -1510,7 +1408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10020</v>
       </c>
@@ -1540,7 +1438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -1570,7 +1468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10022</v>
       </c>
@@ -1600,7 +1498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -1630,7 +1528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -1660,7 +1558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -1690,7 +1588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10026</v>
       </c>
@@ -1720,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -1750,7 +1648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10028</v>
       </c>
@@ -1780,7 +1678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -1815,16 +1713,16 @@
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -1845,16 +1743,16 @@
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1870,7 +1768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>10310</v>
       </c>
@@ -1900,7 +1798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>10313</v>
       </c>
@@ -1914,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1930,7 +1828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>10317</v>
       </c>
@@ -1938,7 +1836,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -1947,7 +1845,7 @@
         <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G35" s="3" t="b">
         <f>TRUE()</f>
@@ -1960,7 +1858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>10319</v>
       </c>
@@ -1968,16 +1866,16 @@
         <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G36" s="3" t="b">
         <f>TRUE()</f>
@@ -1990,54 +1888,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>10063</v>
+        <v>10089</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="3" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10090</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>10064</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G38" s="3" t="b">
         <f>TRUE()</f>
@@ -2050,24 +1948,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>10065</v>
+        <v>10091</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G39" s="3" t="b">
         <f>TRUE()</f>
@@ -2080,24 +1978,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>10066</v>
+        <v>10092</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G40" s="3" t="b">
         <f>TRUE()</f>
@@ -2110,24 +2008,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>10067</v>
+        <v>10093</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G41" s="3" t="b">
         <f>TRUE()</f>
@@ -2140,27 +2038,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>10068</v>
+        <v>10094</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G42" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H42" t="s">
@@ -2170,27 +2067,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>10069</v>
+        <v>10095</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G43" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H43" t="s">
@@ -2200,27 +2096,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>10070</v>
+        <v>10096</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G44" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H44" t="s">
@@ -2230,27 +2125,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>10071</v>
+        <v>10097</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G45" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H45" t="s">
@@ -2260,27 +2154,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>10072</v>
+        <v>10098</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G46" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H46" t="s">
@@ -2290,27 +2183,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>10073</v>
+        <v>10099</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G47" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H47" t="s">
@@ -2320,27 +2212,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>10074</v>
+        <v>11001</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G48" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H48" t="s">
@@ -2350,27 +2241,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10075</v>
+        <v>11002</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G49" s="3" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H49" t="s">
@@ -2380,786 +2270,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>10076</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>10077</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>10078</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>10079</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>10080</v>
-      </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>10081</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>10082</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>10083</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>10084</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>10085</v>
-      </c>
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>10086</v>
-      </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>10087</v>
-      </c>
-      <c r="B61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>10088</v>
-      </c>
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>10089</v>
-      </c>
-      <c r="B63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>10090</v>
-      </c>
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>10091</v>
-      </c>
-      <c r="B65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>10092</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>10093</v>
-      </c>
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>10094</v>
-      </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>10095</v>
-      </c>
-      <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>10096</v>
-      </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>10097</v>
-      </c>
-      <c r="B71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>10098</v>
-      </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>10099</v>
-      </c>
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>11001</v>
-      </c>
-      <c r="B74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F74" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>11002</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F75" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I75" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="residenceStatus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
